--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/23/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/23/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2182182182182182</v>
+        <v>0.6120612061206121</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1391.391391391392</v>
+        <v>1674.117411741174</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.07557557557557558</v>
+        <v>0.04155415541554155</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3703703703703703</v>
+        <v>0.6472647264726473</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1515.515515515516</v>
+        <v>1714.401440144014</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>311.3113113113113</v>
+        <v>826.8226822682268</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>297.2972972972973</v>
+        <v>294.03600360036</v>
       </c>
     </row>
   </sheetData>
